--- a/data/trans_dic/P2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en su vivienda habitual</t>
+          <t>Población que se encuentra en su vivienda habitual (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>92,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>87,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>84,47%</t>
+          <t>91,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>79,62%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>90,09%</t>
+          <t>82,05%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>82,57%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>86,26%</t>
+          <t>93,98%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>89,92%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>87,17%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>85,05%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,25; 96,88</t>
+          <t>84,1; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>85,55; 98,41</t>
+          <t>82,52; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>85,86; 97,91</t>
+          <t>79,25; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,26; 97,2</t>
+          <t>76,45; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>70,75; 96,02</t>
+          <t>70,42; 97,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,68; 97,53</t>
+          <t>84,15; 98,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,35; 92,46</t>
+          <t>81,33; 97,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>60,69; 89,46</t>
+          <t>74,16; 93,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>81,0; 94,98</t>
+          <t>69,29; 91,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>88,41; 96,52</t>
+          <t>69,17; 91,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>81,0; 93,97</t>
+          <t>89,2; 98,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>76,95; 91,63</t>
+          <t>86,93; 97,81</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>80,63; 95,36</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>76,85; 93,76</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>74,27; 91,59</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>85,91%</t>
+          <t>77,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>79,41%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>80,98%</t>
+          <t>74,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>92,13%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>92,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>86,59%</t>
+          <t>85,64%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>85,77%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>83,03%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>95,98%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,31; 97,48</t>
+          <t>89,52; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,91; 95,92</t>
+          <t>41,83; 96,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,29; 96,81</t>
+          <t>43,42; 96,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,46; 93,44</t>
+          <t>38,96; 95,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,31; 98,03</t>
+          <t>89,61; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,28; 97,63</t>
+          <t>87,99; 98,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>85,37; 96,72</t>
+          <t>85,08; 98,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,25; 97,03</t>
+          <t>83,55; 98,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>89,5; 96,92</t>
+          <t>83,26; 97,96</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>75,65; 95,57</t>
+          <t>84,2; 98,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>75,19; 95,09</t>
+          <t>90,84; 99,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>69,99; 93,25</t>
+          <t>65,31; 94,37</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>65,24; 94,44</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>61,03; 93,56</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>90,04; 98,55</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>86,63%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>96,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>95,9%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>94,1%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>94,11%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>98,01%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,85; 98,24</t>
+          <t>91,61; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,44; 97,01</t>
+          <t>87,14; 98,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,56; 96,04</t>
+          <t>79,0; 96,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>84,45; 96,08</t>
+          <t>78,8; 96,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,94; 98,04</t>
+          <t>91,54; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>89,42; 97,74</t>
+          <t>90,72; 98,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,12; 97,86</t>
+          <t>91,9; 99,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>88,0; 97,25</t>
+          <t>91,68; 99,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>92,41; 97,51</t>
+          <t>91,58; 99,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>78,59; 95,84</t>
+          <t>92,37; 100,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>88,36; 96,18</t>
+          <t>92,53; 98,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>88,46; 95,9</t>
+          <t>91,51; 98,22</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>89,83; 97,35</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>89,67; 97,27</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>94,18; 99,53</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>92,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>98,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>97,86%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>96,98%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>93,84%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>94,87%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>95,92%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>95,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>95,88%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>96,56%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>95,3%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>94,38%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>95,94%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>93,44%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>93,89%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>99,44%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,4; 96,96</t>
+          <t>85,82; 97,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,28; 97,61</t>
+          <t>86,94; 98,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>87,48; 97,09</t>
+          <t>85,64; 97,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87,74; 97,65</t>
+          <t>84,84; 97,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,62; 100,0</t>
+          <t>94,52; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,49; 99,36</t>
+          <t>93,21; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,09; 98,07</t>
+          <t>91,88; 99,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>90,83; 98,53</t>
+          <t>86,63; 97,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>94,2; 98,28</t>
+          <t>88,54; 98,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,59; 97,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>90,37; 96,82</t>
+          <t>91,89; 98,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,66; 97,44</t>
+          <t>92,1; 98,25</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>89,16; 96,66</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>89,5; 97,0</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>97,12; 100,0</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>98,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>93,6%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>99,04%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>99,08%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>98,98%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>97,93%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>92,36; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91,5; 99,08</t>
+          <t>92,85; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>90,57; 99,06</t>
+          <t>93,19; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,47; 98,88</t>
+          <t>92,38; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>87,84; 98,05</t>
+          <t>88,99; 98,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>87,0; 97,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>86,49; 97,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>87,64; 97,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,71; 98,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91,34; 97,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>90,68; 97,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>91,15; 97,63</t>
+          <t>94,2; 100,0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>94,33; 100,0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>93,82; 100,0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>94,55; 99,41</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>92,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>94,75%</t>
+          <t>91,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>97,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,78%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>85,53%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>79,82%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>89,94%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>85,8%</t>
+          <t>90,92%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>92,14%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>92,3%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>98,21%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>86,64; 98,7</t>
+          <t>84,72; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>87,64; 98,75</t>
+          <t>77,16; 97,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,35; 98,82</t>
+          <t>81,25; 97,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>87,29; 98,57</t>
+          <t>79,81; 97,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,04; 98,14</t>
+          <t>86,83; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>79,94; 97,02</t>
+          <t>82,25; 97,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,25; 96,3</t>
+          <t>82,52; 97,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>44,71; 96,55</t>
+          <t>83,27; 98,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>90,63; 97,56</t>
+          <t>83,93; 98,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>85,82; 96,71</t>
+          <t>91,72; 100,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>67,64; 96,46</t>
+          <t>86,32; 97,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>55,33; 96,11</t>
+          <t>83,4; 95,65</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>84,35; 96,65</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>84,61; 96,57</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>94,35; 100,0</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>94,67%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>90,72%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>89,36%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>95,85%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>89,58%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>92,98%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>93,7%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>92,44%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>91,49%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>96,19%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>92,57; 96,29</t>
+          <t>94,7; 98,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>86,17; 95,17</t>
+          <t>82,5; 95,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>88,6; 95,37</t>
+          <t>81,9; 94,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,93; 94,34</t>
+          <t>78,95; 94,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,07; 96,63</t>
+          <t>93,16; 98,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,53; 95,87</t>
+          <t>93,61; 97,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>85,73; 94,06</t>
+          <t>92,6; 97,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>79,27; 93,3</t>
+          <t>91,47; 96,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>93,11; 95,94</t>
+          <t>90,6; 95,9</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>90,09; 94,76</t>
+          <t>93,83; 97,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>89,19; 94,08</t>
+          <t>94,83; 97,58</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,0; 92,91</t>
+          <t>88,76; 95,71</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>88,1; 94,72</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>85,16; 94,0</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>94,41; 97,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en su vivienda habitual (tasa de respuesta: 99,98%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>83431</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>103325</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>98728</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>117468</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>127614</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>110777</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>123190</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>104321</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>100529</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>120142</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>194208</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>226515</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>203049</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>217996</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>247756</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>72421; 86113</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>88320; 107024</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>83782; 105717</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>97513; 127558</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>102670; 142273</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>98928; 115391</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>108984; 131133</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>89057; 112849</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>84901; 112147</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>100636; 133423</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>181682; 201009</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>209533; 235747</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>182073; 215323</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>192182; 234471</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>216352; 266795</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>133811</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>131460</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>113874</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>115171</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>220999</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>126728</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>154449</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>117792</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>117791</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>153399</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>260538</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>285908</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>231666</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>232963</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>374398</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>122488; 136829</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>70579; 162223</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>62259; 138403</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>60103; 146712</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>204040; 227693</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>117292; 131321</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>140476; 162326</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>105867; 124241</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>105167; 123741</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>136712; 159762</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>245399; 267807</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>218036; 315035</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>176212; 255073</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>171244; 262529</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>351227; 384425</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>137441</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>153875</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>120305</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>123778</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>177003</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>205576</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>254787</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>203152</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>194410</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>234610</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>343017</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>408662</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>323457</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>318188</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>411614</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>128008; 139726</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>141219; 159531</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>106141; 129353</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>108467; 132452</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>164999; 180255</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>195399; 211817</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>242672; 261778</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>191942; 207650</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>183590; 198818</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>221419; 239705</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>328608; 349921</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>389957; 418536</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>308775; 334613</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>303193; 328863</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>395518; 417996</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>153112</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>176858</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>149906</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>144981</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>199089</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>187188</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>211769</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>174488</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>163609</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>212744</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>340300</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>388625</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>324394</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>308590</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>411833</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>140293; 159398</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>162318; 184070</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>138072; 156762</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>132527; 152009</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>190367; 201412</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>178291; 191281</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>200641; 216263</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>161074; 180871</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>152691; 169113</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>325999; 348562</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>373058; 397978</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>309524; 335541</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>294146; 318814</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>402208; 414156</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>138892</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>154803</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>129992</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>120992</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>148602</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>103481</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>116201</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>93816</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>92673</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>137056</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>242373</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>271004</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>223808</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>213665</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>285658</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>146169; 157422</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>123080; 132073</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>113807; 123193</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>137623; 152889</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>257750; 273623</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>213083; 225889</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>202531; 215866</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>275803; 289986</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>85705</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>98130</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>80420</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>82706</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>134809</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>98292</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>126365</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>96926</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>102573</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>207606</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>183997</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>224494</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>177347</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>185279</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>342415</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>76451; 90237</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>84347; 106405</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>70956; 85226</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>71939; 88003</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>119679; 137831</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>88021; 104767</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>113551; 134700</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>87550; 103071</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>92831; 108547</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>193354; 210818</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>170280; 192730</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>205925; 236177</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>162352; 186030</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>169839; 193854</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>328968; 348649</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>382.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>683.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>674.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>666.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>664.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>683.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>732391</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>818449</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>693225</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>705096</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1008118</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>832043</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>986759</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>790495</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>771584</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1065556</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1564435</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1805209</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1483719</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1476682</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>2073673</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>715226; 743800</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>735280; 852862</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>625816; 722481</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>622925; 742115</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>975953; 1028492</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>812579; 846556</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>958766; 1004954</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>769329; 810031</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>747509; 791185</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1039801; 1084442</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1539402; 1583988</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1710037; 1843973</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1414158; 1520334</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1374545; 1517237</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2035402; 2101628</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>